--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/3_fold/77.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/3_fold/77.xlsx
@@ -479,13 +479,13 @@
         <v>-0.2315319816838313</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.570320849235032</v>
+        <v>-1.556766970581511</v>
       </c>
       <c r="F2" t="n">
-        <v>0.01255212962297256</v>
+        <v>0.005969581657693084</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.1630470175684535</v>
+        <v>-0.1487675161000136</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-0.2169118687448547</v>
       </c>
       <c r="E3" t="n">
-        <v>-1.581219357630917</v>
+        <v>-1.567096471065047</v>
       </c>
       <c r="F3" t="n">
-        <v>0.02258964955950704</v>
+        <v>0.01549397136068355</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.1289962619173557</v>
+        <v>-0.1120850004781011</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-0.2035742700225552</v>
       </c>
       <c r="E4" t="n">
-        <v>-1.649298832665415</v>
+        <v>-1.637207217775583</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.03370986637117596</v>
+        <v>-0.04384340147410978</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.1357913024640107</v>
+        <v>-0.1192389173844127</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-0.1899004158529134</v>
       </c>
       <c r="E5" t="n">
-        <v>-1.780474438196372</v>
+        <v>-1.773934388747367</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.07662392369431791</v>
+        <v>-0.09112063980149725</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.1441477699789961</v>
+        <v>-0.1251430631084116</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-0.171231739056879</v>
       </c>
       <c r="E6" t="n">
-        <v>-1.807838760620184</v>
+        <v>-1.813821607300248</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.09376341790616109</v>
+        <v>-0.1153621082886491</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.1411555596294035</v>
+        <v>-0.1227662942352476</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-0.1455723621143915</v>
       </c>
       <c r="E7" t="n">
-        <v>-1.630057235917075</v>
+        <v>-1.637329991267044</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.07778554980583781</v>
+        <v>-0.1099364643775257</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.133159542493196</v>
+        <v>-0.11779554185018</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-0.1136272984060836</v>
       </c>
       <c r="E8" t="n">
-        <v>-1.324655814878027</v>
+        <v>-1.324408693875982</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.08424375026053453</v>
+        <v>-0.1241530050811135</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.098605100723282</v>
+        <v>-0.07772101502186449</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-0.07759433395418998</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.8439047286782789</v>
+        <v>-0.8290743205173839</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.01293438798912818</v>
+        <v>-0.05732330122892888</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.09802113962927946</v>
+        <v>-0.08176152210624335</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-0.04040940917662973</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.3366188281316442</v>
+        <v>-0.3030103718536319</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.01029003586534302</v>
+        <v>-0.05362278227475096</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.03008962239218437</v>
+        <v>-0.01244329402328236</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-0.003855257834036465</v>
       </c>
       <c r="E11" t="n">
-        <v>0.2125643133857723</v>
+        <v>0.2596054488449646</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.04142098604642802</v>
+        <v>-0.08725484883958275</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04255293407496367</v>
+        <v>0.06285935475886384</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>0.03144449951524506</v>
       </c>
       <c r="E12" t="n">
-        <v>0.8434233071074814</v>
+        <v>0.9044039559049126</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.09981394740844093</v>
+        <v>-0.1485172470597268</v>
       </c>
       <c r="G12" t="n">
-        <v>0.1207580741167883</v>
+        <v>0.1364431746605497</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>0.06584758498123201</v>
       </c>
       <c r="E13" t="n">
-        <v>1.498427754149943</v>
+        <v>1.571725102571552</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.2494480751748908</v>
+        <v>-0.3037910853377971</v>
       </c>
       <c r="G13" t="n">
-        <v>0.2236123535981818</v>
+        <v>0.2391400522298131</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>0.1006006412556651</v>
       </c>
       <c r="E14" t="n">
-        <v>2.153395998752615</v>
+        <v>2.230171929432299</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.4836306400420072</v>
+        <v>-0.5425886742685671</v>
       </c>
       <c r="G14" t="n">
-        <v>0.3366820171768167</v>
+        <v>0.3484367919746902</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>0.1378527811023346</v>
       </c>
       <c r="E15" t="n">
-        <v>2.844044108796931</v>
+        <v>2.924887304886056</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.7760597824928555</v>
+        <v>-0.8351083228188901</v>
       </c>
       <c r="G15" t="n">
-        <v>0.4760850206548121</v>
+        <v>0.4879609949250258</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>0.1790317992485349</v>
       </c>
       <c r="E16" t="n">
-        <v>3.512616600665004</v>
+        <v>3.59903969453914</v>
       </c>
       <c r="F16" t="n">
-        <v>-1.013784677392459</v>
+        <v>-1.071034113862847</v>
       </c>
       <c r="G16" t="n">
-        <v>0.637675397666662</v>
+        <v>0.6497197919828549</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>0.2257367944556261</v>
       </c>
       <c r="E17" t="n">
-        <v>4.157888887480464</v>
+        <v>4.255624456779388</v>
       </c>
       <c r="F17" t="n">
-        <v>-1.289946332224665</v>
+        <v>-1.351974490747321</v>
       </c>
       <c r="G17" t="n">
-        <v>0.8086028561060676</v>
+        <v>0.8215523114170084</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>0.2786304775896469</v>
       </c>
       <c r="E18" t="n">
-        <v>4.797790621054046</v>
+        <v>4.905540100002684</v>
       </c>
       <c r="F18" t="n">
-        <v>-1.506464467502984</v>
+        <v>-1.567880332587455</v>
       </c>
       <c r="G18" t="n">
-        <v>0.9625466482266388</v>
+        <v>0.9801536261175082</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>0.3372543512737566</v>
       </c>
       <c r="E19" t="n">
-        <v>5.283355057726731</v>
+        <v>5.391551558105819</v>
       </c>
       <c r="F19" t="n">
-        <v>-1.726299061069884</v>
+        <v>-1.788321710525616</v>
       </c>
       <c r="G19" t="n">
-        <v>1.132729595621669</v>
+        <v>1.146067833655571</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>0.3986142692226934</v>
       </c>
       <c r="E20" t="n">
-        <v>5.698696205321707</v>
+        <v>5.810958397091115</v>
       </c>
       <c r="F20" t="n">
-        <v>-1.878156490845171</v>
+        <v>-1.938712154479851</v>
       </c>
       <c r="G20" t="n">
-        <v>1.261174277977169</v>
+        <v>1.273330427650974</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>0.4603381866362497</v>
       </c>
       <c r="E21" t="n">
-        <v>6.00590696134069</v>
+        <v>6.108397642405063</v>
       </c>
       <c r="F21" t="n">
-        <v>-2.079520757033168</v>
+        <v>-2.141584330986054</v>
       </c>
       <c r="G21" t="n">
-        <v>1.380867414018237</v>
+        <v>1.390519299270053</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>0.5196637559327565</v>
       </c>
       <c r="E22" t="n">
-        <v>6.327434995287025</v>
+        <v>6.434225896590791</v>
       </c>
       <c r="F22" t="n">
-        <v>-2.189030776368981</v>
+        <v>-2.245582135359073</v>
       </c>
       <c r="G22" t="n">
-        <v>1.481132432045091</v>
+        <v>1.488102188714211</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>0.5741719516992196</v>
       </c>
       <c r="E23" t="n">
-        <v>6.463332658181884</v>
+        <v>6.557951669620631</v>
       </c>
       <c r="F23" t="n">
-        <v>-2.284135372706651</v>
+        <v>-2.336094530910347</v>
       </c>
       <c r="G23" t="n">
-        <v>1.585362404238501</v>
+        <v>1.590424449732604</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>0.6218041359318811</v>
       </c>
       <c r="E24" t="n">
-        <v>6.609644031583267</v>
+        <v>6.699703109627608</v>
       </c>
       <c r="F24" t="n">
-        <v>-2.348036613983655</v>
+        <v>-2.395424820659095</v>
       </c>
       <c r="G24" t="n">
-        <v>1.595887870102639</v>
+        <v>1.592125964402731</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>0.6613378100358616</v>
       </c>
       <c r="E25" t="n">
-        <v>6.693421199314496</v>
+        <v>6.775339450463469</v>
       </c>
       <c r="F25" t="n">
-        <v>-2.356119989181095</v>
+        <v>-2.399880868791497</v>
       </c>
       <c r="G25" t="n">
-        <v>1.646818406810566</v>
+        <v>1.637364847968034</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>0.691415892534304</v>
       </c>
       <c r="E26" t="n">
-        <v>6.706369080606316</v>
+        <v>6.783003349565083</v>
       </c>
       <c r="F26" t="n">
-        <v>-2.371732684845277</v>
+        <v>-2.413315121991798</v>
       </c>
       <c r="G26" t="n">
-        <v>1.689242944186983</v>
+        <v>1.674590400186795</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>0.7110840745568673</v>
       </c>
       <c r="E27" t="n">
-        <v>6.658841573238641</v>
+        <v>6.724419931889392</v>
       </c>
       <c r="F27" t="n">
-        <v>-2.298058358844116</v>
+        <v>-2.328540813147225</v>
       </c>
       <c r="G27" t="n">
-        <v>1.649154251186576</v>
+        <v>1.629568731260231</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>0.7205568146087655</v>
       </c>
       <c r="E28" t="n">
-        <v>6.55655866269828</v>
+        <v>6.612880214896662</v>
       </c>
       <c r="F28" t="n">
-        <v>-2.252492079301582</v>
+        <v>-2.273953043010957</v>
       </c>
       <c r="G28" t="n">
-        <v>1.609153703256961</v>
+        <v>1.585617395336152</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>0.7201703482366185</v>
       </c>
       <c r="E29" t="n">
-        <v>6.418575424467698</v>
+        <v>6.468089343966454</v>
       </c>
       <c r="F29" t="n">
-        <v>-2.173537706158019</v>
+        <v>-2.188640419626899</v>
       </c>
       <c r="G29" t="n">
-        <v>1.56494580221611</v>
+        <v>1.539374287571459</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>0.7102041786079912</v>
       </c>
       <c r="E30" t="n">
-        <v>6.255440934697853</v>
+        <v>6.301378682753013</v>
       </c>
       <c r="F30" t="n">
-        <v>-2.143425146348415</v>
+        <v>-2.146721929397979</v>
       </c>
       <c r="G30" t="n">
-        <v>1.496091909773933</v>
+        <v>1.469413859687008</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>0.6917415952419667</v>
       </c>
       <c r="E31" t="n">
-        <v>5.999829673513348</v>
+        <v>6.033457018020816</v>
       </c>
       <c r="F31" t="n">
-        <v>-1.997016183761511</v>
+        <v>-1.978591502937125</v>
       </c>
       <c r="G31" t="n">
-        <v>1.420455568938071</v>
+        <v>1.389733863728524</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>0.6660398838053079</v>
       </c>
       <c r="E32" t="n">
-        <v>5.763882633211254</v>
+        <v>5.787393756826122</v>
       </c>
       <c r="F32" t="n">
-        <v>-1.887296819882564</v>
+        <v>-1.860781680774693</v>
       </c>
       <c r="G32" t="n">
-        <v>1.349440548242348</v>
+        <v>1.314254924804792</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>0.6338780201239148</v>
       </c>
       <c r="E33" t="n">
-        <v>5.432052644116006</v>
+        <v>5.444259162401694</v>
       </c>
       <c r="F33" t="n">
-        <v>-1.832422578266219</v>
+        <v>-1.798789724691827</v>
       </c>
       <c r="G33" t="n">
-        <v>1.27632578603881</v>
+        <v>1.23803777091317</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>0.5970856217972127</v>
       </c>
       <c r="E34" t="n">
-        <v>5.147702941814795</v>
+        <v>5.153572459118125</v>
       </c>
       <c r="F34" t="n">
-        <v>-1.755188608022237</v>
+        <v>-1.717130399688307</v>
       </c>
       <c r="G34" t="n">
-        <v>1.165988619654753</v>
+        <v>1.125015327908174</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>0.5573692931848891</v>
       </c>
       <c r="E35" t="n">
-        <v>4.770907948481351</v>
+        <v>4.759340481958913</v>
       </c>
       <c r="F35" t="n">
-        <v>-1.710462854690478</v>
+        <v>-1.67025296221773</v>
       </c>
       <c r="G35" t="n">
-        <v>1.088403643146721</v>
+        <v>1.051925750010577</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>0.51599007886374</v>
       </c>
       <c r="E36" t="n">
-        <v>4.325720250308271</v>
+        <v>4.301828214066048</v>
       </c>
       <c r="F36" t="n">
-        <v>-1.642348751235312</v>
+        <v>-1.59696663192997</v>
       </c>
       <c r="G36" t="n">
-        <v>1.028036861806596</v>
+        <v>0.989166459606076</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>0.4742655159501183</v>
       </c>
       <c r="E37" t="n">
-        <v>3.971172443235291</v>
+        <v>3.942955002447734</v>
       </c>
       <c r="F37" t="n">
-        <v>-1.60638084029447</v>
+        <v>-1.562729355012998</v>
       </c>
       <c r="G37" t="n">
-        <v>0.9462649944359045</v>
+        <v>0.908729360450247</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>0.434150203291628</v>
       </c>
       <c r="E38" t="n">
-        <v>3.641105355555901</v>
+        <v>3.609121287011071</v>
       </c>
       <c r="F38" t="n">
-        <v>-1.521471952815025</v>
+        <v>-1.471985578650892</v>
       </c>
       <c r="G38" t="n">
-        <v>0.8569252431299987</v>
+        <v>0.817425233280958</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>0.3963215586384651</v>
       </c>
       <c r="E39" t="n">
-        <v>3.233066082664638</v>
+        <v>3.189404366258878</v>
       </c>
       <c r="F39" t="n">
-        <v>-1.496349820629506</v>
+        <v>-1.448503574389768</v>
       </c>
       <c r="G39" t="n">
-        <v>0.7867664888362632</v>
+        <v>0.7507765416277229</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>0.3609270020710861</v>
       </c>
       <c r="E40" t="n">
-        <v>2.841796409491713</v>
+        <v>2.788460771566439</v>
       </c>
       <c r="F40" t="n">
-        <v>-1.486748303989571</v>
+        <v>-1.445884406571924</v>
       </c>
       <c r="G40" t="n">
-        <v>0.716750970282566</v>
+        <v>0.6808869446037298</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>0.3284686206842134</v>
       </c>
       <c r="E41" t="n">
-        <v>2.495918299738858</v>
+        <v>2.438438269467199</v>
       </c>
       <c r="F41" t="n">
-        <v>-1.458299482391183</v>
+        <v>-1.415837168555854</v>
       </c>
       <c r="G41" t="n">
-        <v>0.6653655420485837</v>
+        <v>0.629624289861209</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>0.298045714378157</v>
       </c>
       <c r="E42" t="n">
-        <v>2.130870211107681</v>
+        <v>2.067158639134793</v>
       </c>
       <c r="F42" t="n">
-        <v>-1.424817734652435</v>
+        <v>-1.385669518077005</v>
       </c>
       <c r="G42" t="n">
-        <v>0.5992110923994372</v>
+        <v>0.5637090911185001</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>0.268459427524959</v>
       </c>
       <c r="E43" t="n">
-        <v>1.881416512725705</v>
+        <v>1.825568740282836</v>
       </c>
       <c r="F43" t="n">
-        <v>-1.393470356842172</v>
+        <v>-1.35981467999052</v>
       </c>
       <c r="G43" t="n">
-        <v>0.5228947753031733</v>
+        <v>0.4893728900768325</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>0.2392994193161487</v>
       </c>
       <c r="E44" t="n">
-        <v>1.651466485275766</v>
+        <v>1.60363361819856</v>
       </c>
       <c r="F44" t="n">
-        <v>-1.388246974388135</v>
+        <v>-1.359774542502927</v>
       </c>
       <c r="G44" t="n">
-        <v>0.4490402241126237</v>
+        <v>0.4178447391475654</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>0.2103480238091421</v>
       </c>
       <c r="E45" t="n">
-        <v>1.430759098106105</v>
+        <v>1.384298775702673</v>
       </c>
       <c r="F45" t="n">
-        <v>-1.315927878850415</v>
+        <v>-1.289289966251082</v>
       </c>
       <c r="G45" t="n">
-        <v>0.393737062285724</v>
+        <v>0.363621354437878</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>0.1814405429006065</v>
       </c>
       <c r="E46" t="n">
-        <v>1.206303971408627</v>
+        <v>1.161480628891348</v>
       </c>
       <c r="F46" t="n">
-        <v>-1.253348026625742</v>
+        <v>-1.227038297013201</v>
       </c>
       <c r="G46" t="n">
-        <v>0.3478874593013563</v>
+        <v>0.3228337969476132</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>0.1529725067845737</v>
       </c>
       <c r="E47" t="n">
-        <v>1.07240531279782</v>
+        <v>1.034408491209622</v>
       </c>
       <c r="F47" t="n">
-        <v>-1.202709470464817</v>
+        <v>-1.178829239366003</v>
       </c>
       <c r="G47" t="n">
-        <v>0.2754888757980098</v>
+        <v>0.2491130373823742</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>0.1254168760724549</v>
       </c>
       <c r="E48" t="n">
-        <v>0.8894885507114674</v>
+        <v>0.8581750143123115</v>
       </c>
       <c r="F48" t="n">
-        <v>-1.12505838515369</v>
+        <v>-1.104499334400821</v>
       </c>
       <c r="G48" t="n">
-        <v>0.2057692728391172</v>
+        <v>0.1845404769501348</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>0.09935010637402335</v>
       </c>
       <c r="E49" t="n">
-        <v>0.7256677886047344</v>
+        <v>0.6965547309371568</v>
       </c>
       <c r="F49" t="n">
-        <v>-1.060681003092492</v>
+        <v>-1.041168675055288</v>
       </c>
       <c r="G49" t="n">
-        <v>0.1608971357290772</v>
+        <v>0.1390418802298171</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>0.07506479064630375</v>
       </c>
       <c r="E50" t="n">
-        <v>0.6406723300736186</v>
+        <v>0.6159869881942598</v>
       </c>
       <c r="F50" t="n">
-        <v>-0.9981656856517922</v>
+        <v>-0.9813449303120124</v>
       </c>
       <c r="G50" t="n">
-        <v>0.1368571416894518</v>
+        <v>0.1181829788343404</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>0.05354138205190022</v>
       </c>
       <c r="E51" t="n">
-        <v>0.5175100558892036</v>
+        <v>0.4956595224473075</v>
       </c>
       <c r="F51" t="n">
-        <v>-0.9760373378349865</v>
+        <v>-0.9616122395978264</v>
       </c>
       <c r="G51" t="n">
-        <v>0.1181798307960978</v>
+        <v>0.1041553204253087</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>0.03484339295986757</v>
       </c>
       <c r="E52" t="n">
-        <v>0.3618741932132342</v>
+        <v>0.3432283627023063</v>
       </c>
       <c r="F52" t="n">
-        <v>-0.9638182273963293</v>
+        <v>-0.9572931311289773</v>
       </c>
       <c r="G52" t="n">
-        <v>0.06539195152503664</v>
+        <v>0.04998230432750292</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>0.01902116734477642</v>
       </c>
       <c r="E53" t="n">
-        <v>0.3002308823657354</v>
+        <v>0.2828568593048184</v>
       </c>
       <c r="F53" t="n">
-        <v>-0.9474901400415165</v>
+        <v>-0.9352726036219806</v>
       </c>
       <c r="G53" t="n">
-        <v>0.06205817902612179</v>
+        <v>0.05329876261608347</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>0.006049697648800915</v>
       </c>
       <c r="E54" t="n">
-        <v>0.1776714575047786</v>
+        <v>0.1643536817194535</v>
       </c>
       <c r="F54" t="n">
-        <v>-0.9064877289411943</v>
+        <v>-0.8978377068600863</v>
       </c>
       <c r="G54" t="n">
-        <v>0.02129737986091918</v>
+        <v>0.01283073100744278</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-0.00468221283601927</v>
       </c>
       <c r="E55" t="n">
-        <v>0.1066359745604786</v>
+        <v>0.1036421901917647</v>
       </c>
       <c r="F55" t="n">
-        <v>-0.9092635116616081</v>
+        <v>-0.907242471109858</v>
       </c>
       <c r="G55" t="n">
-        <v>0.005256550995743872</v>
+        <v>0.001151509127391679</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-0.01401730378038871</v>
       </c>
       <c r="E56" t="n">
-        <v>0.02598166076591003</v>
+        <v>0.02241178539880007</v>
       </c>
       <c r="F56" t="n">
-        <v>-0.9128876906884029</v>
+        <v>-0.9151896936533052</v>
       </c>
       <c r="G56" t="n">
-        <v>-0.02977009651056033</v>
+        <v>-0.03463696363362206</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-0.02276643195650209</v>
       </c>
       <c r="E57" t="n">
-        <v>-0.07572043671869132</v>
+        <v>-0.07668845847829124</v>
       </c>
       <c r="F57" t="n">
-        <v>-0.934358098512505</v>
+        <v>-0.9421707424210809</v>
       </c>
       <c r="G57" t="n">
-        <v>-0.06877743837463397</v>
+        <v>-0.07425030285939647</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-0.03146926011675082</v>
       </c>
       <c r="E58" t="n">
-        <v>-0.1202462896220452</v>
+        <v>-0.1178915570165793</v>
       </c>
       <c r="F58" t="n">
-        <v>-0.9286373260161376</v>
+        <v>-0.9395122241252041</v>
       </c>
       <c r="G58" t="n">
-        <v>-0.09649119304337518</v>
+        <v>-0.1009362230419283</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-0.0406049689266874</v>
       </c>
       <c r="E59" t="n">
-        <v>-0.1969199090588443</v>
+        <v>-0.1943448137763963</v>
       </c>
       <c r="F59" t="n">
-        <v>-0.9376902969922986</v>
+        <v>-0.9494922923638111</v>
       </c>
       <c r="G59" t="n">
-        <v>-0.112089722535465</v>
+        <v>-0.1168353901861866</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-0.05021847228088379</v>
       </c>
       <c r="E60" t="n">
-        <v>-0.2796849824950771</v>
+        <v>-0.2764188928183781</v>
       </c>
       <c r="F60" t="n">
-        <v>-0.9630304308261183</v>
+        <v>-0.9821933266183935</v>
       </c>
       <c r="G60" t="n">
-        <v>-0.12322905585691</v>
+        <v>-0.1265769945279165</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-0.06010770480894258</v>
       </c>
       <c r="E61" t="n">
-        <v>-0.3619164634491889</v>
+        <v>-0.3569960796760029</v>
       </c>
       <c r="F61" t="n">
-        <v>-0.9439714202958489</v>
+        <v>-0.9640055356717641</v>
       </c>
       <c r="G61" t="n">
-        <v>-0.1583879209694034</v>
+        <v>-0.1646651092251506</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-0.07020655909177015</v>
       </c>
       <c r="E62" t="n">
-        <v>-0.4838085042027142</v>
+        <v>-0.479683000085785</v>
       </c>
       <c r="F62" t="n">
-        <v>-0.9663886006214133</v>
+        <v>-0.9961407100522389</v>
       </c>
       <c r="G62" t="n">
-        <v>-0.1804934455089503</v>
+        <v>-0.1846630221612758</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-0.08042501850786732</v>
       </c>
       <c r="E63" t="n">
-        <v>-0.534233780772703</v>
+        <v>-0.5272309697020362</v>
       </c>
       <c r="F63" t="n">
-        <v>-0.9877393829922965</v>
+        <v>-1.017955041054345</v>
       </c>
       <c r="G63" t="n">
-        <v>-0.2123972390785939</v>
+        <v>-0.2188680316862611</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-0.0905250041774984</v>
       </c>
       <c r="E64" t="n">
-        <v>-0.6740255669736597</v>
+        <v>-0.6715811152782797</v>
       </c>
       <c r="F64" t="n">
-        <v>-1.023911129409347</v>
+        <v>-1.057297648991256</v>
       </c>
       <c r="G64" t="n">
-        <v>-0.2591896795166208</v>
+        <v>-0.2665608110616719</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-0.1006582472378392</v>
       </c>
       <c r="E65" t="n">
-        <v>-0.8310512885337376</v>
+        <v>-0.837586615925378</v>
       </c>
       <c r="F65" t="n">
-        <v>-1.081122789420824</v>
+        <v>-1.121023387136235</v>
       </c>
       <c r="G65" t="n">
-        <v>-0.3179273510661986</v>
+        <v>-0.3276406230637451</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-0.1104937444385398</v>
       </c>
       <c r="E66" t="n">
-        <v>-0.9374431759902543</v>
+        <v>-0.9462710622320692</v>
       </c>
       <c r="F66" t="n">
-        <v>-1.108705900502497</v>
+        <v>-1.147943836167841</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.3513028525142584</v>
+        <v>-0.363178826784472</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-0.1195442797044341</v>
       </c>
       <c r="E67" t="n">
-        <v>-1.01517689730525</v>
+        <v>-1.032072418553291</v>
       </c>
       <c r="F67" t="n">
-        <v>-1.161785760320559</v>
+        <v>-1.205216095915488</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.4061322345856465</v>
+        <v>-0.4165963137040535</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-0.1267195489823615</v>
       </c>
       <c r="E68" t="n">
-        <v>-1.103574598167057</v>
+        <v>-1.127607509120636</v>
       </c>
       <c r="F68" t="n">
-        <v>-1.213191650803119</v>
+        <v>-1.265122476662631</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.4299864943689584</v>
+        <v>-0.4451411504688415</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-0.130234501879403</v>
       </c>
       <c r="E69" t="n">
-        <v>-1.244611433492962</v>
+        <v>-1.283382672488841</v>
       </c>
       <c r="F69" t="n">
-        <v>-1.268242182561049</v>
+        <v>-1.320534245808901</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.4603414531232422</v>
+        <v>-0.4775958507309403</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-0.1283876985595492</v>
       </c>
       <c r="E70" t="n">
-        <v>-1.296044082300583</v>
+        <v>-1.339245398113363</v>
       </c>
       <c r="F70" t="n">
-        <v>-1.348556508225417</v>
+        <v>-1.403762080866796</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.4925631985553885</v>
+        <v>-0.5139478223373797</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-0.1200045623280027</v>
       </c>
       <c r="E71" t="n">
-        <v>-1.347527099720086</v>
+        <v>-1.39731725957463</v>
       </c>
       <c r="F71" t="n">
-        <v>-1.37749406276097</v>
+        <v>-1.435595043575981</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.5433992941160368</v>
+        <v>-0.5680893580527595</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-0.1045911057259347</v>
       </c>
       <c r="E72" t="n">
-        <v>-1.415519216693351</v>
+        <v>-1.473184194211763</v>
       </c>
       <c r="F72" t="n">
-        <v>-1.425369428354451</v>
+        <v>-1.484025250909721</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.5294833910646175</v>
+        <v>-0.5548487092043781</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-0.08232229338350641</v>
       </c>
       <c r="E73" t="n">
-        <v>-1.446123657478362</v>
+        <v>-1.513313811709324</v>
       </c>
       <c r="F73" t="n">
-        <v>-1.433943897517737</v>
+        <v>-1.489667322450024</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.5537988384504705</v>
+        <v>-0.5825262614333294</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-0.05408183384458767</v>
       </c>
       <c r="E74" t="n">
-        <v>-1.487223657764204</v>
+        <v>-1.560356521187638</v>
       </c>
       <c r="F74" t="n">
-        <v>-1.466901496889091</v>
+        <v>-1.524656193497417</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.5606489696663711</v>
+        <v>-0.5889388153335083</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-0.02027626179811729</v>
       </c>
       <c r="E75" t="n">
-        <v>-1.476070158270668</v>
+        <v>-1.554280807379417</v>
       </c>
       <c r="F75" t="n">
-        <v>-1.461968520962935</v>
+        <v>-1.514844545304789</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.5786321381272315</v>
+        <v>-0.6095631878799113</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>0.01839538705601503</v>
       </c>
       <c r="E76" t="n">
-        <v>-1.390538746228749</v>
+        <v>-1.471230836482229</v>
       </c>
       <c r="F76" t="n">
-        <v>-1.516744386384199</v>
+        <v>-1.57854746017251</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.5600996369930372</v>
+        <v>-0.591899545300675</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>0.06074086157287494</v>
       </c>
       <c r="E77" t="n">
-        <v>-1.336965431416159</v>
+        <v>-1.425135686514938</v>
       </c>
       <c r="F77" t="n">
-        <v>-1.525428249876415</v>
+        <v>-1.58885807242659</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.5368781328964881</v>
+        <v>-0.5665452452947635</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>0.1061443246076296</v>
       </c>
       <c r="E78" t="n">
-        <v>-1.168968796580615</v>
+        <v>-1.252366625703611</v>
       </c>
       <c r="F78" t="n">
-        <v>-1.479380320482763</v>
+        <v>-1.535668818279597</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.4965627811426136</v>
+        <v>-0.5278605773505565</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>0.1543320787104551</v>
       </c>
       <c r="E79" t="n">
-        <v>-1.048909701093844</v>
+        <v>-1.132963109180862</v>
       </c>
       <c r="F79" t="n">
-        <v>-1.464805690429079</v>
+        <v>-1.512943917215818</v>
       </c>
       <c r="G79" t="n">
-        <v>-0.4968870290816015</v>
+        <v>-0.5294408925483424</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>0.204655356627114</v>
       </c>
       <c r="E80" t="n">
-        <v>-0.8719915258787685</v>
+        <v>-0.9548541885005218</v>
       </c>
       <c r="F80" t="n">
-        <v>-1.436016093690929</v>
+        <v>-1.479030101228274</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.4827759476591409</v>
+        <v>-0.5171651174213183</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>0.2560730082537923</v>
       </c>
       <c r="E81" t="n">
-        <v>-0.726128747926955</v>
+        <v>-0.809863417141909</v>
       </c>
       <c r="F81" t="n">
-        <v>-1.411497597838428</v>
+        <v>-1.44659428919563</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.453922603146578</v>
+        <v>-0.4858736172898606</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>0.3073722713328436</v>
       </c>
       <c r="E82" t="n">
-        <v>-0.5284114840430117</v>
+        <v>-0.6063207084900318</v>
       </c>
       <c r="F82" t="n">
-        <v>-1.411818697739174</v>
+        <v>-1.440121135559281</v>
       </c>
       <c r="G82" t="n">
-        <v>-0.4110368781676194</v>
+        <v>-0.4403057637282057</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>0.3575306504611603</v>
       </c>
       <c r="E83" t="n">
-        <v>-0.3233010523463191</v>
+        <v>-0.4011599081814576</v>
       </c>
       <c r="F83" t="n">
-        <v>-1.335629876191735</v>
+        <v>-1.353858591635518</v>
       </c>
       <c r="G83" t="n">
-        <v>-0.3300268360516369</v>
+        <v>-0.3565695204941304</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>0.4048604151668247</v>
       </c>
       <c r="E84" t="n">
-        <v>-0.1399293987339103</v>
+        <v>-0.2127702816103422</v>
       </c>
       <c r="F84" t="n">
-        <v>-1.315962507271083</v>
+        <v>-1.332096990273976</v>
       </c>
       <c r="G84" t="n">
-        <v>-0.3078898311296641</v>
+        <v>-0.3349771261881276</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>0.4485014503113565</v>
       </c>
       <c r="E85" t="n">
-        <v>0.0485672611374536</v>
+        <v>-0.02071633852483878</v>
       </c>
       <c r="F85" t="n">
-        <v>-1.201047306272723</v>
+        <v>-1.21066377609431</v>
       </c>
       <c r="G85" t="n">
-        <v>-0.2748684839838969</v>
+        <v>-0.3053210319237014</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>0.4875508239075655</v>
       </c>
       <c r="E86" t="n">
-        <v>0.3016805539764533</v>
+        <v>0.2405629655154689</v>
       </c>
       <c r="F86" t="n">
-        <v>-1.104323831268796</v>
+        <v>-1.108270684215457</v>
       </c>
       <c r="G86" t="n">
-        <v>-0.2113568124394142</v>
+        <v>-0.2384787359185463</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>0.5207727091090751</v>
       </c>
       <c r="E87" t="n">
-        <v>0.5261152184253545</v>
+        <v>0.4727166197352287</v>
       </c>
       <c r="F87" t="n">
-        <v>-0.9857049632780154</v>
+        <v>-0.9808396701740749</v>
       </c>
       <c r="G87" t="n">
-        <v>-0.1509034600476187</v>
+        <v>-0.1770620838245148</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>0.5473417123844563</v>
       </c>
       <c r="E88" t="n">
-        <v>0.6960982653919796</v>
+        <v>0.6462475058012656</v>
       </c>
       <c r="F88" t="n">
-        <v>-0.8402939288140152</v>
+        <v>-0.8319547755093641</v>
       </c>
       <c r="G88" t="n">
-        <v>-0.1275875148037916</v>
+        <v>-0.1521799895549935</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>0.5661121434638927</v>
       </c>
       <c r="E89" t="n">
-        <v>0.8669108204355302</v>
+        <v>0.8282450407207789</v>
       </c>
       <c r="F89" t="n">
-        <v>-0.7247278709089974</v>
+        <v>-0.7135098366314874</v>
       </c>
       <c r="G89" t="n">
-        <v>-0.07528285940296972</v>
+        <v>-0.09800854747630905</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>0.57546126138224</v>
       </c>
       <c r="E90" t="n">
-        <v>0.9970223890404878</v>
+        <v>0.9646762960977586</v>
       </c>
       <c r="F90" t="n">
-        <v>-0.5504871022192539</v>
+        <v>-0.535836132238187</v>
       </c>
       <c r="G90" t="n">
-        <v>-0.0571611772594349</v>
+        <v>-0.07969955705733946</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>0.5738403647041728</v>
       </c>
       <c r="E91" t="n">
-        <v>1.112903250769766</v>
+        <v>1.08357455248257</v>
       </c>
       <c r="F91" t="n">
-        <v>-0.35713774139692</v>
+        <v>-0.3371083480783687</v>
       </c>
       <c r="G91" t="n">
-        <v>-0.07881810634941107</v>
+        <v>-0.09823520622977636</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>0.5607598638857126</v>
       </c>
       <c r="E92" t="n">
-        <v>1.167753095089731</v>
+        <v>1.14434743075599</v>
       </c>
       <c r="F92" t="n">
-        <v>-0.2160804438224375</v>
+        <v>-0.1994477837676532</v>
       </c>
       <c r="G92" t="n">
-        <v>-0.0413595993006973</v>
+        <v>-0.05994876512325842</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>0.5370989002000648</v>
       </c>
       <c r="E93" t="n">
-        <v>1.20020779535183</v>
+        <v>1.18057977690921</v>
       </c>
       <c r="F93" t="n">
-        <v>-0.1149544373362323</v>
+        <v>-0.09939683234129626</v>
       </c>
       <c r="G93" t="n">
-        <v>-0.04285491746593295</v>
+        <v>-0.0585274258567239</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>0.5053269566141524</v>
       </c>
       <c r="E94" t="n">
-        <v>1.176446402696674</v>
+        <v>1.162281804624089</v>
       </c>
       <c r="F94" t="n">
-        <v>0.02804519983393523</v>
+        <v>0.0499492499259556</v>
       </c>
       <c r="G94" t="n">
-        <v>-0.01060483968960316</v>
+        <v>-0.02385021059534845</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>0.4691816550777761</v>
       </c>
       <c r="E95" t="n">
-        <v>1.179954891318054</v>
+        <v>1.173487246748629</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1066674549429046</v>
+        <v>0.1284015109698245</v>
       </c>
       <c r="G95" t="n">
-        <v>-0.04729679942624349</v>
+        <v>-0.05773884227695225</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>0.4324976719125005</v>
       </c>
       <c r="E96" t="n">
-        <v>1.098823649729731</v>
+        <v>1.094414822170968</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1849229635966109</v>
+        <v>0.2057456625522977</v>
       </c>
       <c r="G96" t="n">
-        <v>-0.07953743308784549</v>
+        <v>-0.08783408787622141</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>0.3977936128520473</v>
       </c>
       <c r="E97" t="n">
-        <v>1.046141229739797</v>
+        <v>1.04331271737882</v>
       </c>
       <c r="F97" t="n">
-        <v>0.2305522039039965</v>
+        <v>0.2526215260037535</v>
       </c>
       <c r="G97" t="n">
-        <v>-0.04807436487216603</v>
+        <v>-0.05151517067132933</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>0.3652452721510351</v>
       </c>
       <c r="E98" t="n">
-        <v>0.93362562089186</v>
+        <v>0.9282912700897719</v>
       </c>
       <c r="F98" t="n">
-        <v>0.2137778821282951</v>
+        <v>0.2340575444871331</v>
       </c>
       <c r="G98" t="n">
-        <v>-0.1058802171019338</v>
+        <v>-0.1099112800715848</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>0.3348366403361522</v>
       </c>
       <c r="E99" t="n">
-        <v>0.8949220647181974</v>
+        <v>0.8935259097576036</v>
       </c>
       <c r="F99" t="n">
-        <v>0.2005750097388249</v>
+        <v>0.217572842229751</v>
       </c>
       <c r="G99" t="n">
-        <v>-0.09380749044155752</v>
+        <v>-0.09686266155600215</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>0.2997247410338302</v>
       </c>
       <c r="E100" t="n">
-        <v>0.8420775207587693</v>
+        <v>0.8391199388298454</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1924341828434578</v>
+        <v>0.208207428458012</v>
       </c>
       <c r="G100" t="n">
-        <v>-0.09570103544448225</v>
+        <v>-0.09896240306381726</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>0.2605363030428117</v>
       </c>
       <c r="E101" t="n">
-        <v>0.780892249475569</v>
+        <v>0.7829793988304137</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1739961228565415</v>
+        <v>0.1884377482944753</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.08450503743467044</v>
+        <v>-0.08560370278133833</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>0.208446376736525</v>
       </c>
       <c r="E102" t="n">
-        <v>0.7700960523225676</v>
+        <v>0.7704092821277064</v>
       </c>
       <c r="F102" t="n">
-        <v>0.1515096856896399</v>
+        <v>0.1607523259699175</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.07122346408913524</v>
+        <v>-0.06944167444382286</v>
       </c>
     </row>
   </sheetData>
